--- a/WinStock_project/manage/0823/winstock_개발이슈.xlsx
+++ b/WinStock_project/manage/0823/winstock_개발이슈.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>개발구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,26 @@
   </si>
   <si>
     <t>데이터 변경사항 있을 경우 emit 되도록 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 3:19분에 종목 등록되도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편입, 제거 버튼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일 상한가 간 종목만 5일 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일 상한가 못간 종목은 2일만 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,11 +699,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,7 +1014,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1032,15 +1052,15 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="45" customHeight="1">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:9" ht="148.5">
       <c r="B3" s="2"/>
@@ -1418,7 +1438,7 @@
     </row>
     <row r="23" spans="2:8" ht="148.5">
       <c r="B23" s="7"/>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1547,7 +1567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" ht="33">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1556,7 +1576,7 @@
       <c r="E30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -1585,10 +1605,14 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="4"/>
     </row>
@@ -1597,7 +1621,9 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
     </row>
@@ -1606,7 +1632,9 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
     </row>
@@ -1615,7 +1643,9 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
     </row>

--- a/WinStock_project/manage/0823/winstock_개발이슈.xlsx
+++ b/WinStock_project/manage/0823/winstock_개발이슈.xlsx
@@ -516,11 +516,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전일 상한가 간 종목만 5일 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전일 상한가 못간 종목은 2일만 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전일 상한가 간 종목만 5일 등록 27%
+이틀전 종가와 전일 종가로 비교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +588,14 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -653,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,6 +713,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,12 +1623,12 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G32" s="2"/>
@@ -1618,33 +1636,33 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" ht="33">
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>105</v>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="4"/>
